--- a/biology/Botanique/Chimonobambusa/Chimonobambusa.xlsx
+++ b/biology/Botanique/Chimonobambusa/Chimonobambusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chimonobambusa est un genre de plantes de la famille des Poaceae,  sous-famille des Bambusoideae, originaire d'Asie de l'Est et de l'Himalaya, qui regroupe 37 espèces, dont 34 poussent en Chine et 31 sont endémiques de ce pays[2]. Les espèces de ce genre sont des bambous de taille petite ou moyenne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chimonobambusa est un genre de plantes de la famille des Poaceae,  sous-famille des Bambusoideae, originaire d'Asie de l'Est et de l'Himalaya, qui regroupe 37 espèces, dont 34 poussent en Chine et 31 sont endémiques de ce pays. Les espèces de ce genre sont des bambous de taille petite ou moyenne.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Chimonobambusa » est formé du nom de genre Bambusa et d'un préfixe dérivé d'une racine grecque χεῖμα (cheima) signifiant « hiver ». Ce nom évoque la ressemblance de ces plantes avec celles du genre Bambusa et l'émergence de nouvelles tiges en hiver chez certaines espèces[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Chimonobambusa » est formé du nom de genre Bambusa et d'un préfixe dérivé d'une racine grecque χεῖμα (cheima) signifiant « hiver ». Ce nom évoque la ressemblance de ces plantes avec celles du genre Bambusa et l'émergence de nouvelles tiges en hiver chez certaines espèces. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (28 nov. 2011)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (28 nov. 2011) :
 Chimonobambusa angustifolia C.D.Chu &amp; C.S.Chao (1981)
 Chimonobambusa armata (Gamble) Hsueh &amp; T.P.Yi (1983)
 Chimonobambusa brevinoda Hsueh &amp; W.P.Zhang (1988)
